--- a/excel/怪物表.xlsx
+++ b/excel/怪物表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="151">
   <si>
     <t>怪物ID</t>
   </si>
@@ -481,8 +481,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -542,8 +542,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,16 +567,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,6 +618,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -595,47 +643,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,35 +658,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -695,79 +695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,43 +719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +785,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,13 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,17 +889,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,20 +943,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,6 +972,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -994,10 +994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,133 +1006,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1974,13 +1974,13 @@
         <v>5</v>
       </c>
       <c r="K11" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L11" s="1">
         <v>95</v>
       </c>
       <c r="M11" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2021,7 +2021,7 @@
         <v>95</v>
       </c>
       <c r="M12" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2946,7 +2946,7 @@
         <v>95</v>
       </c>
       <c r="M35" s="1">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:16">
@@ -2981,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="K36" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>95</v>
       </c>
       <c r="M36" s="1">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="K45" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="L45" s="1">
         <v>95</v>
@@ -3441,7 +3441,7 @@
         <v>95</v>
       </c>
       <c r="M47" s="1">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3851,7 +3851,7 @@
         <v>95</v>
       </c>
       <c r="M57" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4541,7 +4541,7 @@
         <v>85</v>
       </c>
       <c r="H75" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -4550,13 +4550,13 @@
         <v>5</v>
       </c>
       <c r="K75" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
         <v>95</v>
       </c>
       <c r="M75" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4570,10 +4570,10 @@
         <v>4</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>3</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>84</v>
@@ -4582,7 +4582,7 @@
         <v>85</v>
       </c>
       <c r="H76" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
@@ -4591,13 +4591,13 @@
         <v>5</v>
       </c>
       <c r="K76" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1">
         <v>95</v>
       </c>
       <c r="M76" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4605,13 +4605,25 @@
         <v>1075</v>
       </c>
       <c r="B77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -4626,7 +4638,540 @@
         <v>95</v>
       </c>
       <c r="M77" s="1">
-        <v>150</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>95</v>
+      </c>
+      <c r="M78" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" ht="28.5" spans="1:13">
+      <c r="A79" s="1">
+        <v>1077</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L79" s="1">
+        <v>95</v>
+      </c>
+      <c r="M79" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" ht="28.5" spans="1:13">
+      <c r="A80" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>5</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L80" s="1">
+        <v>95</v>
+      </c>
+      <c r="M80" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" ht="28.5" spans="1:13">
+      <c r="A81" s="1">
+        <v>1079</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1">
+        <v>95</v>
+      </c>
+      <c r="M81" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" ht="28.5" spans="1:13">
+      <c r="A82" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>95</v>
+      </c>
+      <c r="M82" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>5</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L83" s="1">
+        <v>95</v>
+      </c>
+      <c r="M83" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>5</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>95</v>
+      </c>
+      <c r="M84" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>5</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1">
+        <v>95</v>
+      </c>
+      <c r="M85" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" ht="28.5" spans="1:13">
+      <c r="A86" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>6</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>5</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1">
+        <v>95</v>
+      </c>
+      <c r="M86" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" ht="28.5" spans="1:13">
+      <c r="A87" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>5</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L87" s="1">
+        <v>95</v>
+      </c>
+      <c r="M87" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>5</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1">
+        <v>95</v>
+      </c>
+      <c r="M88" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" ht="28.5" spans="1:13">
+      <c r="A89" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>5</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
+        <v>95</v>
+      </c>
+      <c r="M89" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>5</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L90" s="1">
+        <v>95</v>
+      </c>
+      <c r="M90" s="1">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
